--- a/form-files/household/household.xlsx
+++ b/form-files/household/household.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="23655" windowHeight="18240" activeTab="1"/>
+    <workbookView xWindow="-10716" yWindow="300" windowWidth="23652" windowHeight="18240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -269,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,6 +304,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,22 +480,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -518,7 +520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -529,7 +531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -540,7 +542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -551,7 +553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -559,7 +561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -571,7 +573,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
@@ -581,20 +583,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -605,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -616,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -627,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -638,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -655,19 +657,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -675,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -683,15 +685,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+        <v>20130408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>

--- a/form-files/household/household.xlsx
+++ b/form-files/household/household.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-10716" yWindow="300" windowWidth="23652" windowHeight="18240" activeTab="2"/>
+    <workbookView xWindow="-10716" yWindow="300" windowWidth="23652" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
+    <sheet name="model" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>type</t>
   </si>
@@ -118,13 +119,131 @@
   </si>
   <si>
     <t>household</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>household_member</t>
+  </si>
+  <si>
+    <t>line_subtext.elementName</t>
+  </si>
+  <si>
+    <t>line_subtext.isInstanceMetadata</t>
+  </si>
+  <si>
+    <t>line_text.isInstanceMetadata</t>
+  </si>
+  <si>
+    <t>line_text.elementName</t>
+  </si>
+  <si>
+    <t>instanceName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listing of subforms displays the line_text in larger font, and the line_subtext in smaller font beside an 'edit' button. </t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>household_id</t>
+  </si>
+  <si>
+    <t>Unique barcode ID or locator designation for this household</t>
+  </si>
+  <si>
+    <t>schema.type</t>
+  </si>
+  <si>
+    <t>schema.joins[0].table_id</t>
+  </si>
+  <si>
+    <t>schema.joins[0].element_name</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This would insert a 'joins' entry into the column_definitions table for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>household_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> column of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>household</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> table_id of the form: 
+"[ { table_id: household_member, element_name: household_id } ]"
+The way to define joins is undoubtedly broken in the current XLSXConverter, as there is no way to parse lists of values (as far as I know). I will research how to fix this.</t>
+    </r>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>joined_through_name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>joined_through_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> value identifies the name (elementName) in the model that should be used when scanning in the joins lists for the table_id to discover the foreign key column to filter on in the subform.
+If this is omitted, we would probably just scan the entire model to see if table_id appears anywhere and use the first match we find. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -141,6 +260,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -167,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -180,6 +306,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,21 +611,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,73 +644,130 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:11" ht="169.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -658,10 +851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -701,6 +894,74 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/form-files/household/household.xlsx
+++ b/form-files/household/household.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-10716" yWindow="300" windowWidth="23652" windowHeight="18240"/>
+    <workbookView xWindow="-10716" yWindow="300" windowWidth="23652" windowHeight="18240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>type</t>
   </si>
@@ -25,15 +25,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>select_one yesno</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -46,9 +37,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>list_name</t>
-  </si>
-  <si>
     <t>yesno</t>
   </si>
   <si>
@@ -67,9 +55,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>setting</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -79,15 +64,9 @@
     <t>form_version</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>Household members:</t>
   </si>
   <si>
-    <t>repeat_subform household_member</t>
-  </si>
-  <si>
     <t>Capture the household location.</t>
   </si>
   <si>
@@ -115,9 +94,6 @@
     <t>num_rooms</t>
   </si>
   <si>
-    <t>Household survey</t>
-  </si>
-  <si>
     <t>household</t>
   </si>
   <si>
@@ -154,20 +130,68 @@
     <t>Unique barcode ID or locator designation for this household</t>
   </si>
   <si>
-    <t>schema.type</t>
-  </si>
-  <si>
-    <t>schema.joins[0].table_id</t>
-  </si>
-  <si>
-    <t>schema.joins[0].element_name</t>
-  </si>
-  <si>
-    <t>comment</t>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>joined_through_name</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">This would insert a 'joins' entry into the column_definitions table for the </t>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>joined_through_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> value identifies the name (elementName) in the model that should be used when scanning in the joins lists for the table_id to discover the foreign key column to filter on in the subform.
+If this is omitted, we would probably just scan the entire model to see if table_id appears anywhere and use the first match we find. </t>
+    </r>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>repeat_subform</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>display.image</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>Household Survey</t>
+  </si>
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This inserts a 'joins' entry into the column_definitions table for the </t>
     </r>
     <r>
       <rPr>
@@ -205,50 +229,30 @@
       </rPr>
       <t xml:space="preserve"> table_id of the form: 
 "[ { table_id: household_member, element_name: household_id } ]"
-The way to define joins is undoubtedly broken in the current XLSXConverter, as there is no way to parse lists of values (as far as I know). I will research how to fix this.</t>
+</t>
     </r>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>joined_through_name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>joined_through_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> value identifies the name (elementName) in the model that should be used when scanning in the joins lists for the table_id to discover the foreign key column to filter on in the subform.
-If this is omitted, we would probably just scan the entire model to see if table_id appears anywhere and use the first match we find. </t>
-    </r>
+    <t>subform_id</t>
+  </si>
+  <si>
+    <t>display.hint</t>
+  </si>
+  <si>
+    <t>joins[0].table_id</t>
+  </si>
+  <si>
+    <t>joins[0].element_name</t>
+  </si>
+  <si>
+    <t>display.title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -298,17 +302,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,162 +615,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="9" width="27.77734375" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="8" width="20.21875" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="27.77734375" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
+    <col min="13" max="13" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="169.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="169.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -777,71 +800,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -851,57 +878,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -911,57 +944,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
